--- a/IKZ_plugin/tests/data/movpe/movpe1/growth_excel/Growth_Control_movpe1.xlsx
+++ b/IKZ_plugin/tests/data/movpe/movpe1/growth_excel/Growth_Control_movpe1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="213">
   <si>
     <t xml:space="preserve"># start Header</t>
   </si>
@@ -803,58 +803,13 @@
     <t xml:space="preserve">14319-13-2</t>
   </si>
   <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62</t>
-  </si>
-  <si>
     <t xml:space="preserve">53</t>
   </si>
   <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64</t>
+    <t xml:space="preserve">65</t>
   </si>
   <si>
     <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
   </si>
 </sst>
 </file>
@@ -1620,7 +1575,7 @@
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="13.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="13.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="35.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="31"/>
@@ -13776,7 +13731,7 @@
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R27" activeCellId="0" sqref="R27"/>
+      <selection pane="topLeft" activeCell="R24" activeCellId="0" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13792,7 +13747,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="61" width="11.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="15" style="3" width="11.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="61" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="3" width="13.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="3" width="13.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="3" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="3" width="14.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="25" style="3" width="11.56"/>
@@ -14348,7 +14303,7 @@
         <v>203</v>
       </c>
       <c r="K11" s="82" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="L11" s="86"/>
       <c r="M11" s="87" t="s">
@@ -14367,7 +14322,7 @@
         <v>203</v>
       </c>
       <c r="R11" s="82" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="S11" s="85"/>
       <c r="T11" s="87" t="s">
@@ -14416,7 +14371,7 @@
         <v>203</v>
       </c>
       <c r="K12" s="82" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="L12" s="86"/>
       <c r="M12" s="87" t="s">
@@ -14435,7 +14390,7 @@
         <v>203</v>
       </c>
       <c r="R12" s="82" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="S12" s="85"/>
       <c r="T12" s="87" t="s">
@@ -14484,7 +14439,7 @@
         <v>203</v>
       </c>
       <c r="K13" s="82" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L13" s="86"/>
       <c r="M13" s="87" t="s">
@@ -14503,7 +14458,7 @@
         <v>203</v>
       </c>
       <c r="R13" s="82" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="S13" s="85"/>
       <c r="T13" s="87" t="s">
@@ -14552,7 +14507,7 @@
         <v>203</v>
       </c>
       <c r="K14" s="82" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="L14" s="86"/>
       <c r="M14" s="87" t="s">
@@ -14571,7 +14526,7 @@
         <v>203</v>
       </c>
       <c r="R14" s="82" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="S14" s="85"/>
       <c r="T14" s="87" t="s">
@@ -14620,7 +14575,7 @@
         <v>203</v>
       </c>
       <c r="K15" s="82" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="L15" s="86"/>
       <c r="M15" s="87" t="s">
@@ -14639,7 +14594,7 @@
         <v>203</v>
       </c>
       <c r="R15" s="82" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="S15" s="85"/>
       <c r="T15" s="87" t="s">
@@ -14688,7 +14643,7 @@
         <v>203</v>
       </c>
       <c r="K16" s="82" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="L16" s="86"/>
       <c r="M16" s="87" t="s">
@@ -14707,7 +14662,7 @@
         <v>203</v>
       </c>
       <c r="R16" s="82" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="S16" s="85"/>
       <c r="T16" s="87" t="s">
@@ -14756,7 +14711,7 @@
         <v>203</v>
       </c>
       <c r="K17" s="82" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="L17" s="86"/>
       <c r="M17" s="87" t="s">
@@ -14775,7 +14730,7 @@
         <v>203</v>
       </c>
       <c r="R17" s="82" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="S17" s="85"/>
       <c r="T17" s="87" t="s">
@@ -14824,7 +14779,7 @@
         <v>203</v>
       </c>
       <c r="K18" s="82" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="L18" s="86"/>
       <c r="M18" s="87" t="s">
@@ -14843,7 +14798,7 @@
         <v>203</v>
       </c>
       <c r="R18" s="82" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="S18" s="85"/>
       <c r="T18" s="87" t="s">
@@ -14892,7 +14847,7 @@
         <v>203</v>
       </c>
       <c r="K19" s="82" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="L19" s="86"/>
       <c r="M19" s="87" t="s">
@@ -14911,7 +14866,7 @@
         <v>203</v>
       </c>
       <c r="R19" s="82" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="S19" s="85"/>
       <c r="T19" s="87" t="s">
